--- a/biology/Botanique/Tephrosia_pedicellata/Tephrosia_pedicellata.xlsx
+++ b/biology/Botanique/Tephrosia_pedicellata/Tephrosia_pedicellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tephrosia pedicellata est une espèce de plantes de la famille des Fabaceae appartenant au genre Tephrosia, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tephrosia pedicellata est une espèce de plantes de la famille des Fabaceae appartenant au genre Tephrosia, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe semi-ligneuse prostrée, plus ou moins pérenne avec des tiges annuelles d'une longueur de 0,3 m ou davantage, des fleurs roses semi-sessiles et des gousses allant jusqu'à 0,4 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe semi-ligneuse prostrée, plus ou moins pérenne avec des tiges annuelles d'une longueur de 0,3 m ou davantage, des fleurs roses semi-sessiles et des gousses allant jusqu'à 0,4 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de l'Afrique de l'Ouest (notamment dans l'archipel du Cap-Vert) jusqu'au Soudan[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de l'Afrique de l'Ouest (notamment dans l'archipel du Cap-Vert) jusqu'au Soudan.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre un peu partout[3], sur des sols latéritiques, dans des endroits dégradés, au bord des routes, dans les décharges[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre un peu partout, sur des sols latéritiques, dans des endroits dégradés, au bord des routes, dans les décharges.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante fourragère[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante fourragère.
 </t>
         </is>
       </c>
